--- a/data extraction /lit search metadata /acclimation /acclimation7jun21.xlsx
+++ b/data extraction /lit search metadata /acclimation /acclimation7jun21.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maslein/Desktop/thesis/data extraction /lit search metadata /acclimation /"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D27316C2-7243-2F44-B981-0030F334E87B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0540FA9-E213-1148-9548-EAF8F64CB8DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="-26840" windowWidth="23560" windowHeight="14580" xr2:uid="{15E522D6-79C7-664C-9C48-CC1A91CDC4AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$T$23</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="166">
   <si>
     <t>Bartheld_2017_JOOFTHBI</t>
   </si>
@@ -144,27 +147,9 @@
     <t>figure 1, 2</t>
   </si>
   <si>
-    <t>Manenti_2014_JOOFEVBI</t>
-  </si>
-  <si>
-    <t>Manenti, T. and Sorensen, J. G. and Moghadam, N. N. and Loeschcke, V.</t>
-  </si>
-  <si>
-    <t>Predictability rather than amplitude of temperature fluctuations determines stress resistance in a natural population of Drosophila simulans</t>
-  </si>
-  <si>
     <t>JOURNAL OF EVOLUTIONARY BIOLOGY</t>
   </si>
   <si>
-    <t>10.1111/jeb.12463</t>
-  </si>
-  <si>
-    <t>The adaptability of organisms to novel environmental conditions depends on the amount of genetic variance present in the population as well as on the ability of individuals to adjust their phenotype through phenotypic plasticity. Here, we investigated the phenotypic plasticity induced by a single generation's exposure to three different temperature regimes with respect to several life-history and stress-resistance traits in a natural population of Drosophila simulans. We studied a constant as well as a predictably and an unpredictably fluctuating temperature regime. We found high levels of phenotypic plasticity among all temperature regimes, suggesting a strong influence of both temperature fluctuations and their predictability. Increased heat tolerance was observed for flies developed in both types of fluctuating thermal environments compared with flies developed in a constant environment. We suggest that this was due to beneficial hardening when developing in either fluctuating temperature environment. To our surprise, flies that developed in constant and predictably changing environments were similar to each other in most traits when compared to flies from the unpredictably fluctuating environment. The unpredictably changing thermal environment imposed the most stressful condition, resulting in the lowest performance for stress-related traits, even though the absolute temperature changes never exceeded that of the predictably fluctuating environment. The overall decreased stress resistance of flies in the unpredictably fluctuating environment may be the consequence of maladaptive phenotypic plasticity in this setting, indicating that the adaptive value of plasticity depends on the predictability of the environment.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">predictable and unpredictable variability; extracted all of figure 2 except for 2b and 2d--return to this for pulse press or acclimation assay experiments for cold exposure recovery etc </t>
-  </si>
-  <si>
     <t>Fabricio.Neto_2019_JOOFTHBI</t>
   </si>
   <si>
@@ -237,9 +222,6 @@
     <t>Drosophila suzukii (Matsumura) (Diptera: Drosophilidae) is a worldwide emerging pest of soft fruits, but its cold tolerance has not been thoroughly explored. We determined the cold tolerance strategy, low temperature thermal limits, and plasticity of cold tolerance in both male and female adult D. suzukii. We reared flies under common conditions (long days, 21 degrees C; control) and induced plasticity by rapid cold-hardening (RCH, 1 h at 0 degrees C followed by 1 h recovery), cold acclimation (CA, 5 days at 6 degrees C) or acclimation under fluctuating temperatures (FA). D. suzukii had supercooling points (SCPs) between -16 and -23 degrees C, and were chill-susceptible. 80% of control flies were killed after 1 h at -7.2 degrees C (males) or -7.5 degrees C (females); CA and FA improved survival of this temperature in both sexes, but RCH did not. 80% of control flies were killed after 70 h (male) or 92 h (female) at 0 degrees C, and FA shifted this to 112 h (males) and 165 h (females). FA flies entered chill coma (CTmin) at approximately -1.7 degrees C, which was ca. 0.5 degrees C colder than control flies; RCH and CA increased the CTmin compared to controls. Control and RCH flies exposed to 0 degrees C for 8 h took 30-40 min to recover movement, but this was reduced to &lt;10 min in CA and FA. Flies placed outside in a field cage in London, Ontario, were all killed by a transient cold snap in December. We conclude that adult phenotypic plasticity is not sufficient to allow D. suzukii to overwinter in temperate habitats, and suggest that flies could overwinter in association with built structures, or that there may be additional cold tolerance imparted by developmental plasticity. (C) 2015 Elsevier Ltd. All rights reserved.</t>
   </si>
   <si>
-    <t xml:space="preserve">acclimation as well as flux temp featured as treatments, flag for pulse press as well </t>
-  </si>
-  <si>
     <t>Kern_2014_JOOFEXBI</t>
   </si>
   <si>
@@ -306,9 +288,6 @@
     <t>figure 4, 5</t>
   </si>
   <si>
-    <t>return for cold exposure in figure 2 and figure 1; not sure how usable data for big met analysis is--- doesn't fit the acclimated to flux measured in constant pattern</t>
-  </si>
-  <si>
     <t>Javal_2016_ANIMBIOL</t>
   </si>
   <si>
@@ -363,18 +342,12 @@
     <t>acclimated at fluctuating and exposed to different constant treatments, not sure how to handle the isolated thermoperiod trts (no supp info or explanation in the methods)</t>
   </si>
   <si>
-    <t>appear to have constant, flux, red and white temp treatments; exlcuded because they were reared in flux but then measured in two different regimes, return for acclimation analysis -- this features multiple generations-- generation time IS 25 day at 30 C</t>
-  </si>
-  <si>
     <t>table 1</t>
   </si>
   <si>
     <t>figure 2, 3</t>
   </si>
   <si>
-    <t>pulse press, acclimation experiment-- cold exposure probably better for pulse press?</t>
-  </si>
-  <si>
     <t xml:space="preserve">figure 2, fig s6 </t>
   </si>
   <si>
@@ -541,6 +514,18 @@
   </si>
   <si>
     <t>table 1 full, fig 1 acclimation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> this features multiple generations-- generation time is 25 day at 30 C; excluded because the fluctuating treatment does not match the constant treatment and therefore, cannot be paired…</t>
+  </si>
+  <si>
+    <t>flux and constant don't have the same mean and they are not the same flux pattern (trt exposed to multiple flux patterns)</t>
+  </si>
+  <si>
+    <t>pulse press cold exposure probably better for pulse press?</t>
+  </si>
+  <si>
+    <t>constant and flux don't have the same means…</t>
   </si>
 </sst>
 </file>
@@ -594,9 +579,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -914,15 +898,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C8F4095-DAD1-314E-93A6-2C3D1771AF66}">
-  <dimension ref="A1:P21"/>
+  <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:XFD21"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -966,133 +950,135 @@
         <v>25</v>
       </c>
       <c r="O1" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="P1" t="s">
-        <v>88</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="Q1"/>
+      <c r="R1"/>
+      <c r="S1"/>
+      <c r="T1"/>
     </row>
-    <row r="2" spans="1:16" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="2">
         <v>2017</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="3" t="s">
+      <c r="I2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="N2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
     </row>
-    <row r="3" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B3" s="3" t="s">
+    <row r="3" spans="1:20" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F3" s="2">
+        <v>2018</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="C4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="3">
-        <v>2015</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="E4" s="2" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="F4" s="2">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>6</v>
@@ -1101,48 +1087,48 @@
         <v>8</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>110</v>
+        <v>68</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>89</v>
+        <v>8</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>89</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>39</v>
+        <v>101</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="F5" s="2">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>6</v>
@@ -1154,245 +1140,251 @@
         <v>32</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>45</v>
+        <v>107</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>89</v>
+        <v>8</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>89</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" s="1" t="s">
+    <row r="6" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F6" s="1">
+      <c r="E6" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F6" s="2">
+        <v>2018</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+    </row>
+    <row r="7" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="2">
         <v>2019</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H6" s="1" t="s">
+      <c r="G7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K6" s="1" t="s">
+      <c r="I7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="L7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="M7" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+    </row>
+    <row r="8" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" s="2">
+        <v>2020</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="N6" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="D9" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="F9" s="3">
+        <v>2016</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
     </row>
-    <row r="7" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F7" s="1">
-        <v>2012</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F8" s="3">
-        <v>2020</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="P8" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F9" s="1">
-        <v>2015</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>71</v>
+        <v>118</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>27</v>
+        <v>119</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>29</v>
+        <v>121</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>73</v>
+        <v>122</v>
       </c>
       <c r="F10" s="3">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>74</v>
+        <v>123</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>6</v>
@@ -1401,98 +1393,94 @@
         <v>8</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>11</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="L10" s="3"/>
       <c r="M10" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="N10" s="3"/>
       <c r="O10" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+    </row>
+    <row r="11" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="C11" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="F11" s="3">
+        <v>2019</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
     </row>
-    <row r="11" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F11" s="2">
+    <row r="12" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F12" s="3">
         <v>2017</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="O11" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="P11" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F12" s="3">
-        <v>2018</v>
-      </c>
       <c r="G12" s="3" t="s">
-        <v>86</v>
+        <v>139</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>6</v>
@@ -1501,92 +1489,94 @@
         <v>8</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>11</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="L12" s="3"/>
       <c r="M12" s="3" t="s">
-        <v>87</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="N12" s="3"/>
       <c r="O12" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="P12" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
     </row>
-    <row r="13" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F13" s="2">
-        <v>2016</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="H13" s="2" t="s">
+    <row r="13" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="F13" s="3">
+        <v>2018</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="H13" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="O13" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="P13" s="2" t="s">
-        <v>89</v>
-      </c>
+      <c r="I13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
     </row>
-    <row r="14" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>101</v>
+        <v>148</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>102</v>
+        <v>149</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>103</v>
+        <v>150</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>104</v>
+        <v>151</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>105</v>
+        <v>152</v>
       </c>
       <c r="F14" s="3">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>106</v>
+        <v>153</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>6</v>
@@ -1595,303 +1585,323 @@
         <v>8</v>
       </c>
       <c r="J14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+    </row>
+    <row r="15" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="F15" s="3">
+        <v>2009</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" s="1">
+        <v>2012</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+    </row>
+    <row r="17" spans="1:20" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" s="1">
+        <v>2015</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I17" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="J17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
     </row>
-    <row r="15" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="F15" s="4">
+    <row r="18" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F18" s="1">
         <v>2016</v>
       </c>
-      <c r="G15" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="H15" s="4" t="s">
+      <c r="G18" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H18" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I15" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="M15" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="O15" s="4" t="s">
-        <v>126</v>
-      </c>
+      <c r="I18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
     </row>
-    <row r="16" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="F16" s="4">
-        <v>2016</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="H16" s="4" t="s">
+    <row r="19" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" s="1">
+        <v>2015</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H19" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I16" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K16" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="M16" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="O16" s="4" t="s">
-        <v>126</v>
+      <c r="I19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>117</v>
       </c>
     </row>
-    <row r="17" spans="1:15" s="4" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="F17" s="4">
-        <v>2019</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="H17" s="4" t="s">
+    <row r="20" spans="1:20" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F20" s="1">
+        <v>2017</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H20" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I17" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K17" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="M17" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="O17" s="4" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="F18" s="4">
-        <v>2017</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J18" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K18" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="M18" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="O18" s="4" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="F19" s="4">
-        <v>2018</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J19" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K19" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="M19" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="O19" s="4" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" s="4" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="F20" s="4">
-        <v>2014</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J20" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K20" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="M20" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="O20" s="4" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
+      <c r="I20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M20" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="F21" s="4">
-        <v>2009</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J21" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K21" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="O21" s="4" t="s">
-        <v>126</v>
-      </c>
+      <c r="N20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
     </row>
   </sheetData>
+  <autoFilter ref="A2:T23" xr:uid="{EA640836-B94E-084A-8D12-EC9660F9218A}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T21">
+    <sortCondition descending="1" ref="J2:J21"/>
+    <sortCondition descending="1" ref="O2:O21"/>
+    <sortCondition ref="A2:A21"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data extraction /lit search metadata /acclimation /acclimation7jun21.xlsx
+++ b/data extraction /lit search metadata /acclimation /acclimation7jun21.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maslein/Desktop/thesis/data extraction /lit search metadata /acclimation /"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{228924F6-224D-FB4A-BE3D-81CCE34BC4EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16B413B7-6B96-484E-9205-48A8BC1B42FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="23560" windowHeight="10000" xr2:uid="{15E522D6-79C7-664C-9C48-CC1A91CDC4AD}"/>
+    <workbookView xWindow="28800" yWindow="-28000" windowWidth="23560" windowHeight="12660" xr2:uid="{15E522D6-79C7-664C-9C48-CC1A91CDC4AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$T$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$T$21</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="150">
   <si>
     <t>Bartheld_2017_JOOFTHBI</t>
   </si>
@@ -150,21 +150,6 @@
     <t>JOURNAL OF EVOLUTIONARY BIOLOGY</t>
   </si>
   <si>
-    <t>Fabricio.Neto_2019_JOOFTHBI</t>
-  </si>
-  <si>
-    <t>Fabricio-Neto, Ailton and Bueno Gavira, Rodrigo Samuel and Andrade, Denis Vieira</t>
-  </si>
-  <si>
-    <t>Thermal regime effects on the resting metabolic rate of rattlesnakes depend on temperature range</t>
-  </si>
-  <si>
-    <t>10.1016/j.jtherbio.2019.05.025</t>
-  </si>
-  <si>
-    <t>While ectothermic organisms often experience considerable circadian variation in body temperature under natural conditions, the study of the effects of temperature on metabolic rates are traditionally based on subjecting animals to constant temperature regimes. Whether data resulting from constant-temperature experiments accurately predicts temperature effects under more natural fluctuating temperature regimes remains uncertain. To address such possibility, we measured the resting metabolic rates of the South American rattlesnakes (Crotalus durissus) under constant and circadian fluctuating thermal regimes in a range of temperatures. Metabolic rates measured at constant 20 degrees C and 25 degrees C did not differ from the rates measured at fluctuating regimes with corresponding mean temperatures. However, the difference between thermal regimes increased with temperature, with the metabolic rate measured at constant 30 degrees C being greater than that measured at the fluctuating thermal regime with corresponding mean temperature. Therefore, our results indicate that thermal regime effects on rattlesnakes' metabolism is dependent on temperature range. Broadly, our results highlight the importance of considering multi-factorial attributes of temperature variation in the exam of its effects over functional traits. Such approach provides a more solid support for inferences about temperature effects on the life history, ecology and conservation of ectothermic organisms.</t>
-  </si>
-  <si>
     <t>Hallsson_2012_JOOFEVBI</t>
   </si>
   <si>
@@ -310,9 +295,6 @@
   </si>
   <si>
     <t xml:space="preserve">heatshock assay--likely not usable for acclimation, excluded because mean temperature not the same for flux and constant trt </t>
-  </si>
-  <si>
-    <t>acclimated at fluctuating and exposed to different constant treatments, not sure how to handle the isolated thermoperiod trts (no supp info or explanation in the methods)</t>
   </si>
   <si>
     <t>table 1</t>
@@ -869,10 +851,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C8F4095-DAD1-314E-93A6-2C3D1771AF66}">
-  <dimension ref="A1:O19"/>
+  <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -924,7 +906,7 @@
         <v>25</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -971,30 +953,30 @@
         <v>8</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>29</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F3" s="3">
         <v>2014</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>6</v>
@@ -1006,24 +988,24 @@
         <v>32</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="L3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="N3" s="3" t="s">
         <v>8</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>27</v>
@@ -1053,42 +1035,42 @@
         <v>32</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="L4" s="3" t="s">
         <v>11</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="N4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F5" s="3">
         <v>2018</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>6</v>
@@ -1100,42 +1082,42 @@
         <v>32</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="L5" s="3" t="s">
         <v>11</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="N5" s="3" t="s">
         <v>8</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F6" s="3">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>6</v>
@@ -1147,86 +1129,80 @@
         <v>8</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="L6" s="3" t="s">
         <v>11</v>
       </c>
       <c r="M6" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="O6" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F7" s="3">
-        <v>2020</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="H7" s="3" t="s">
+      <c r="C7" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="F7" s="4">
+        <v>2016</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>107</v>
+      <c r="I7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F8" s="4">
         <v>2016</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>6</v>
@@ -1237,34 +1213,37 @@
       <c r="J8" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="K8" s="4" t="s">
+        <v>108</v>
+      </c>
       <c r="M8" s="4" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F9" s="4">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>6</v>
@@ -1276,36 +1255,36 @@
         <v>8</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F10" s="4">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>6</v>
@@ -1317,36 +1296,36 @@
         <v>8</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F11" s="4">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>6</v>
@@ -1358,13 +1337,13 @@
         <v>8</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>130</v>
+        <v>38</v>
       </c>
       <c r="M11" s="4" t="s">
         <v>131</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -1378,16 +1357,16 @@
         <v>134</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F12" s="4">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>6</v>
@@ -1399,36 +1378,36 @@
         <v>8</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>38</v>
+        <v>138</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>137</v>
+        <v>99</v>
       </c>
       <c r="O12" s="4" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F13" s="4">
-        <v>2014</v>
+        <v>2009</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>6</v>
@@ -1440,168 +1419,171 @@
         <v>8</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="M13" s="4" t="s">
-        <v>105</v>
+        <v>145</v>
       </c>
       <c r="O13" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="B14" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="2">
+        <v>2012</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M14" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="F14" s="4">
-        <v>2009</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K14" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="O14" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N14" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="F15" s="2">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="N15" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="O15" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="D16" s="2" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="F16" s="2">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>11</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="N16" s="2" t="s">
-        <v>81</v>
+        <v>148</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>84</v>
+        <v>26</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>85</v>
+        <v>33</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>86</v>
+        <v>34</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>87</v>
+        <v>35</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="F17" s="2">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>89</v>
+        <v>37</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>6</v>
@@ -1613,39 +1595,42 @@
         <v>9</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>11</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>154</v>
+        <v>88</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="F18" s="2">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>6</v>
@@ -1657,74 +1642,27 @@
         <v>9</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>11</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>93</v>
+        <v>149</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>81</v>
+        <v>8</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F19" s="2">
-        <v>2017</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M19" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="N19" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="O19" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:T22" xr:uid="{EA640836-B94E-084A-8D12-EC9660F9218A}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T20">
-    <sortCondition descending="1" ref="J2:J20"/>
-    <sortCondition descending="1" ref="O2:O20"/>
-    <sortCondition ref="A2:A20"/>
+  <autoFilter ref="A2:T21" xr:uid="{EA640836-B94E-084A-8D12-EC9660F9218A}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T19">
+    <sortCondition descending="1" ref="J2:J19"/>
+    <sortCondition descending="1" ref="O2:O19"/>
+    <sortCondition ref="A2:A19"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data extraction /lit search metadata /acclimation /acclimation7jun21.xlsx
+++ b/data extraction /lit search metadata /acclimation /acclimation7jun21.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maslein/Desktop/thesis/data extraction /lit search metadata /acclimation /"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16B413B7-6B96-484E-9205-48A8BC1B42FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{399DC22D-BF3F-834E-91A9-DF38A1D35F3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="-28000" windowWidth="23560" windowHeight="12660" xr2:uid="{15E522D6-79C7-664C-9C48-CC1A91CDC4AD}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$T$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$T$20</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="144">
   <si>
     <t>Bartheld_2017_JOOFTHBI</t>
   </si>
@@ -336,30 +336,6 @@
     <t>WOS176</t>
   </si>
   <si>
-    <t>Burghardt2016564</t>
-  </si>
-  <si>
-    <t>Burghardt, L.T. and Runcie, D.E. and Wilczek, A.M. and Cooper, M.D. and Roe, J.L. and Welch, S.M. and Schmitt, J.</t>
-  </si>
-  <si>
-    <t>Fluctuating, warm temperatures decrease the effect of a key floral repressor on flowering time in Arabidopsis thaliana</t>
-  </si>
-  <si>
-    <t>New Phytologist</t>
-  </si>
-  <si>
-    <t>10.1111/nph.13799</t>
-  </si>
-  <si>
-    <t>The genetic basis of growth and development is often studied in constant laboratory environments; however, the environmental conditions that organisms experience in nature are often much more dynamic. We examined how daily temperature fluctuations, average temperature, day length and vernalization influence the flowering time of 59 genotypes of Arabidopsis thaliana with allelic perturbations known to affect flowering time. For a subset of genotypes, we also assessed treatment effects on morphology and growth. We identified 17 genotypes, many of which have high levels of the floral repressor FLOWERING LOCUS C (FLC), that bolted dramatically earlier in fluctuating - as opposed to constant - warm temperatures (mean = 22C). This acceleration was not caused by transient VERNALIZATION INSENSITIVE 3-mediated vernalization, differential growth rates or exposure to high temperatures, and was not apparent when the average temperature was cool (mean = 12C). Further, in constant temperatures, contrary to physiological expectations, these genotypes flowered more rapidly in cool than in warm environments. Fluctuating temperatures often reversed these responses, restoring faster bolting in warm conditions. Independently of bolting time, warm fluctuating temperature profiles also caused morphological changes associated with shade avoidance or 'high-temperature' phenotypes. Our results suggest that previous studies have overestimated the effect of the floral repressor FLC on flowering time by using constant temperature laboratory conditions.  2015 New Phytologist Trust.</t>
-  </si>
-  <si>
-    <t>fig 2,3,5</t>
-  </si>
-  <si>
-    <t>maybe acclimation</t>
-  </si>
-  <si>
     <t>Delnat20191237</t>
   </si>
   <si>
@@ -478,6 +454,12 @@
   </si>
   <si>
     <t>constant and flux don't have the same means…</t>
+  </si>
+  <si>
+    <t>not sure how to handle constant mean with changing variance….</t>
+  </si>
+  <si>
+    <t xml:space="preserve">figure 2,3 </t>
   </si>
 </sst>
 </file>
@@ -851,10 +833,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C8F4095-DAD1-314E-93A6-2C3D1771AF66}">
-  <dimension ref="A1:O18"/>
+  <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1175,8 +1157,17 @@
       <c r="J7" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="K7" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>142</v>
+      </c>
       <c r="M7" s="4" t="s">
         <v>99</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="O7" s="4" t="s">
         <v>100</v>
@@ -1199,7 +1190,7 @@
         <v>106</v>
       </c>
       <c r="F8" s="4">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>107</v>
@@ -1218,6 +1209,9 @@
       </c>
       <c r="M8" s="4" t="s">
         <v>109</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="O8" s="4" t="s">
         <v>100</v>
@@ -1240,7 +1234,7 @@
         <v>114</v>
       </c>
       <c r="F9" s="4">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>115</v>
@@ -1275,16 +1269,16 @@
         <v>120</v>
       </c>
       <c r="D10" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="F10" s="4">
+        <v>2018</v>
+      </c>
+      <c r="G10" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="F10" s="4">
-        <v>2017</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>123</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>6</v>
@@ -1296,10 +1290,10 @@
         <v>8</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>124</v>
+        <v>38</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="O10" s="4" t="s">
         <v>100</v>
@@ -1307,25 +1301,25 @@
     </row>
     <row r="11" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="D11" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="E11" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="E11" s="4" t="s">
+      <c r="F11" s="4">
+        <v>2014</v>
+      </c>
+      <c r="G11" s="4" t="s">
         <v>129</v>
-      </c>
-      <c r="F11" s="4">
-        <v>2018</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>130</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>6</v>
@@ -1337,10 +1331,10 @@
         <v>8</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>38</v>
+        <v>130</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>131</v>
+        <v>99</v>
       </c>
       <c r="O11" s="4" t="s">
         <v>100</v>
@@ -1348,25 +1342,25 @@
     </row>
     <row r="12" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="C12" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="D12" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="E12" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="F12" s="4">
+        <v>2009</v>
+      </c>
+      <c r="G12" s="4" t="s">
         <v>136</v>
-      </c>
-      <c r="F12" s="4">
-        <v>2014</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>137</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>6</v>
@@ -1378,92 +1372,98 @@
         <v>8</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="M12" s="4" t="s">
-        <v>99</v>
+        <v>137</v>
       </c>
       <c r="O12" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="F13" s="4">
-        <v>2009</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="H13" s="4" t="s">
+    <row r="13" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="2">
+        <v>2012</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H13" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I13" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K13" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="O13" s="4" t="s">
-        <v>100</v>
+      <c r="I13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>101</v>
       </c>
     </row>
-    <row r="14" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="F14" s="2">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="N14" s="2" t="s">
         <v>76</v>
@@ -1472,48 +1472,45 @@
         <v>101</v>
       </c>
     </row>
-    <row r="15" spans="1:15" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="F15" s="2">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>11</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="N15" s="2" t="s">
-        <v>76</v>
+        <v>140</v>
       </c>
       <c r="O15" s="2" t="s">
         <v>101</v>
@@ -1521,25 +1518,25 @@
     </row>
     <row r="16" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>82</v>
+        <v>35</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>83</v>
+        <v>36</v>
       </c>
       <c r="F16" s="2">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>84</v>
+        <v>37</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>6</v>
@@ -1551,39 +1548,42 @@
         <v>9</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>85</v>
+        <v>10</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>11</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>148</v>
+        <v>88</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="O16" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="17" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="F17" s="2">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>6</v>
@@ -1595,74 +1595,27 @@
         <v>9</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>11</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>88</v>
+        <v>141</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>76</v>
+        <v>8</v>
       </c>
       <c r="O17" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="18" spans="1:15" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F18" s="2">
-        <v>2017</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="N18" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="O18" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A2:T21" xr:uid="{EA640836-B94E-084A-8D12-EC9660F9218A}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T19">
-    <sortCondition descending="1" ref="J2:J19"/>
-    <sortCondition descending="1" ref="O2:O19"/>
-    <sortCondition ref="A2:A19"/>
+  <autoFilter ref="A2:T20" xr:uid="{EA640836-B94E-084A-8D12-EC9660F9218A}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T18">
+    <sortCondition descending="1" ref="J2:J18"/>
+    <sortCondition descending="1" ref="O2:O18"/>
+    <sortCondition ref="A2:A18"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data extraction /lit search metadata /acclimation /acclimation7jun21.xlsx
+++ b/data extraction /lit search metadata /acclimation /acclimation7jun21.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maslein/Desktop/thesis/data extraction /lit search metadata /acclimation /"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{399DC22D-BF3F-834E-91A9-DF38A1D35F3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5568A007-A39D-794D-A8AA-55543F66D9C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="-28000" windowWidth="23560" windowHeight="12660" xr2:uid="{15E522D6-79C7-664C-9C48-CC1A91CDC4AD}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="145">
   <si>
     <t>Bartheld_2017_JOOFTHBI</t>
   </si>
@@ -378,12 +378,6 @@
     <t>Physiological ecologists have long assumed that thermoregulatory behaviour will evolve to optimise physiological performance. The coadaptation hypothesis predicts that an animal's preferred body temperature will correspond to the temperature at which its performance is optimal. Here we use a strong inference approach to examine the relationship between thermal preference and locomotor performance in the caterpillars of a wingless sub-Antarctic moth, Pringleophaga marioni Viette (Tineidae). The coadaptation hypothesis and its alternatives (suboptimal is optimal, thermodynamic effect, trait variation) are tested. Compared to the optimal movement temperature (22.5C for field-fresh caterpillars and 25, 20, 22.5, 25 and 20C following seven day acclimations to 0, 5, 10, 15 and 515C respectively), caterpillar thermal preference was significantly lower (9.2C for field-fresh individuals and 9.4, 8.8, 8.1, 5.2 and 4.6C following acclimation to 0, 5, 10, 15 and 515C, respectively). Together with the low degree of asymmetry observed in the performance curves, and the finding that acclimation to high temperatures did not result in maximal performance, all, but one of the above hypotheses (i.e. trait variation) was rejected. The thermal preference of P. marioni caterpillars more closely resembles temperatures at which survival is high (510C), or where feeding is optimal (10C), than where locomotion speed is maximal, suggesting that thermal preference may be optimised for overall fitness rather than for a given trait.  2016</t>
   </si>
   <si>
-    <t xml:space="preserve">table 1a, 2 </t>
-  </si>
-  <si>
-    <t>acclimation….maybe also included in the full analysis</t>
-  </si>
-  <si>
     <t>Manenti201840</t>
   </si>
   <si>
@@ -456,10 +450,19 @@
     <t>constant and flux don't have the same means…</t>
   </si>
   <si>
-    <t>not sure how to handle constant mean with changing variance….</t>
-  </si>
-  <si>
     <t xml:space="preserve">figure 2,3 </t>
+  </si>
+  <si>
+    <t>acclimation….maybe also included in the full analysis, table 1 excluded because there are no errors reported</t>
+  </si>
+  <si>
+    <t>table 2, figure 1, 3a,  4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not sure how to handle constant mean with changing variance….so far, just extracted constant mean and constant variance trts as paired </t>
+  </si>
+  <si>
+    <t xml:space="preserve">not sure how to handle the data where they include and exclude individuals with different thermal preferences; decided to just use all individuals and not the exclusion analysis because I would be representing a lot of data twice and that might skew the data; extracted all data from figure 1 but not sure whether I should be including thermal preference data the both includes or excludes ctmin; assumed median values as means here </t>
   </si>
 </sst>
 </file>
@@ -836,7 +839,7 @@
   <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+      <selection activeCell="N2" sqref="N2:N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1158,10 +1161,10 @@
         <v>8</v>
       </c>
       <c r="K7" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="L7" s="4" t="s">
         <v>143</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>142</v>
       </c>
       <c r="M7" s="4" t="s">
         <v>99</v>
@@ -1249,10 +1252,16 @@
         <v>8</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>116</v>
+        <v>142</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>144</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>117</v>
+        <v>141</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="O9" s="4" t="s">
         <v>100</v>
@@ -1260,25 +1269,25 @@
     </row>
     <row r="10" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>118</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>120</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>113</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F10" s="4">
         <v>2018</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>6</v>
@@ -1293,7 +1302,7 @@
         <v>38</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O10" s="4" t="s">
         <v>100</v>
@@ -1301,25 +1310,25 @@
     </row>
     <row r="11" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="D11" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="E11" s="4" t="s">
         <v>126</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>128</v>
       </c>
       <c r="F11" s="4">
         <v>2014</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>6</v>
@@ -1331,7 +1340,7 @@
         <v>8</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="M11" s="4" t="s">
         <v>99</v>
@@ -1342,25 +1351,25 @@
     </row>
     <row r="12" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="D12" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="E12" s="4" t="s">
         <v>133</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>135</v>
       </c>
       <c r="F12" s="4">
         <v>2009</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>6</v>
@@ -1372,7 +1381,7 @@
         <v>8</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="O12" s="4" t="s">
         <v>100</v>
@@ -1416,7 +1425,7 @@
         <v>46</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="N13" s="2" t="s">
         <v>76</v>
@@ -1463,7 +1472,7 @@
         <v>11</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="N14" s="2" t="s">
         <v>76</v>
@@ -1510,7 +1519,7 @@
         <v>11</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="O15" s="2" t="s">
         <v>101</v>
@@ -1601,7 +1610,7 @@
         <v>11</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="N17" s="2" t="s">
         <v>8</v>

--- a/data extraction /lit search metadata /acclimation /acclimation7jun21.xlsx
+++ b/data extraction /lit search metadata /acclimation /acclimation7jun21.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maslein/Desktop/thesis/data extraction /lit search metadata /acclimation /"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5568A007-A39D-794D-A8AA-55543F66D9C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07A99C70-C3D1-214B-AF79-67E573A7A7F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-28000" windowWidth="23560" windowHeight="12660" xr2:uid="{15E522D6-79C7-664C-9C48-CC1A91CDC4AD}"/>
+    <workbookView xWindow="2840" yWindow="460" windowWidth="23560" windowHeight="12660" xr2:uid="{15E522D6-79C7-664C-9C48-CC1A91CDC4AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$T$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$T$19</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="139">
   <si>
     <t>Bartheld_2017_JOOFTHBI</t>
   </si>
@@ -414,30 +414,6 @@
     <t>We investigated the effects of constant and diel-fluctuating temperature acclimation on the thermal tolerance, swimming capacity, specific dynamic action (SDA) and growth performance of juvenile Chinese bream (Parabramis pekinensis). The critical thermal maxima (CTmax), critical thermal minima (CTmin), lethal thermal maxima (LTmax), lethal thermal minima (LTmin), critical swimming speed (Ucrit) and fast-start escape response after 30d acclimation to three constant temperatures (15, 20 and 25C) and one diel-fluctuating temperature (205C) were measured. In addition, feeding rate (FR), feeding efficiency (FE) and specific growth rate (SGR) were measured. The diel-fluctuating temperature group showed lower CTmin than the 20C group but a similar CTmax, indicating a wider thermal scope. SDA linearly increased with the temperature. Temperature variation between 20 and 25C had little effect on either swimming or growth performance. However, fish in the 15C group exhibited much poorer swimming and growth performance than those in the 20C group. Ucrit decreased slightly under low acclimation temperature due to the pronounced improvement in swimming efficiency under cold temperature. Fish in the diel-fluctuating temperature group fed more but exhibited similar SGR compared to 20C group, possibly due in part to an increase in energy expenditure to cope with the temperature fluctuation. The narrower thermal scope and lower CTmax of Chinese bream together with the conservation of CTmax with temperature acclimation, suggests that local water temperature elevations may have more profound effects on Chinese bream than on other fish species in the Three Gorges Reservoir.  2014 Elsevier Inc.</t>
   </si>
   <si>
-    <t>table 1, fig 1-4</t>
-  </si>
-  <si>
-    <t>VatanseverSakin2009267</t>
-  </si>
-  <si>
-    <t>Vatansever Sakin, G. and Ulusoy, M.R.</t>
-  </si>
-  <si>
-    <t>The effects of different temperatures and diets on the biology of Cales noacki Howard (Hymenoptera: Aphelinidae), a parasitoid of the citrus woolly whitefly</t>
-  </si>
-  <si>
-    <t>Turkish Journal of Agriculture and Forestry</t>
-  </si>
-  <si>
-    <t>10.3906/tar-0803-22</t>
-  </si>
-  <si>
-    <t>The biology of Cales noacki Howard (Hymenoptera: Aphelinidae), a particular parasitoid of the woolly whitefly, Aleurothrixus floccosus Maskell (Homoptera: Aleyrodidae), was investigated under laboratory conditions, where the effects of different temperatures [18, 22, 26, 30, 34, 18/26, 26/34 C] and the longevity of adults on different diets [sugar water (10%), water with honey (10%), water, honeydew of A. floccosus, 1st instar larvae of A. floccosus, or no food] were observed. The longest developmental time of C. noacki was identified at 18 C (: 49.0 and : 48.5 days) and the shortest time was at 26 and 30 C constant temperatures (: 19.1, 18.5 and : 19.0, 18.9 days). The developmental threshold of the parasitoid was calculated as 10.0 C and the total effective temperature was 384.6 degree-days. The longest lifespan of adult individuals was at 18 C (: 8.6 and : 8.3 days) and the shortest was under the fluctuating temperature of 26-34 C (: 6.2 and : 6.2 days). The preoviposition period of C. noacki females lasted about 0.8 days, the oviposition period was about 6.4 days, and females parasitized an average of 37.4 hosts during this period. The lifespan of the adults was the longest when fed sugar water (10%) (: 7.4 and : 7.0 days) and the shortest, when without a nutrient (: 1.1 and : 1.3 days).  TBTAK.</t>
-  </si>
-  <si>
-    <t>table 1 full, fig 1 acclimation</t>
-  </si>
-  <si>
     <t xml:space="preserve"> this features multiple generations-- generation time is 25 day at 30 C; excluded because the fluctuating treatment does not match the constant treatment and therefore, cannot be paired…</t>
   </si>
   <si>
@@ -463,6 +439,12 @@
   </si>
   <si>
     <t xml:space="preserve">not sure how to handle the data where they include and exclude individuals with different thermal preferences; decided to just use all individuals and not the exclusion analysis because I would be representing a lot of data twice and that might skew the data; extracted all data from figure 1 but not sure whether I should be including thermal preference data the both includes or excludes ctmin; assumed median values as means here </t>
+  </si>
+  <si>
+    <t xml:space="preserve">acclimation; excluded the figures/data that reported the fluctuating treatments at the two different min/max. </t>
+  </si>
+  <si>
+    <t>fig 1</t>
   </si>
 </sst>
 </file>
@@ -836,10 +818,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C8F4095-DAD1-314E-93A6-2C3D1771AF66}">
-  <dimension ref="A1:O17"/>
+  <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2:N9"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1161,10 +1143,10 @@
         <v>8</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="M7" s="4" t="s">
         <v>99</v>
@@ -1252,13 +1234,13 @@
         <v>8</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="N9" s="4" t="s">
         <v>8</v>
@@ -1304,6 +1286,9 @@
       <c r="M10" s="4" t="s">
         <v>121</v>
       </c>
+      <c r="N10" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="O10" s="4" t="s">
         <v>100</v>
       </c>
@@ -1340,92 +1325,104 @@
         <v>8</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>99</v>
+        <v>137</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="O11" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="F12" s="4">
-        <v>2009</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="H12" s="4" t="s">
+    <row r="12" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="2">
+        <v>2012</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I12" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="O12" s="4" t="s">
-        <v>100</v>
+      <c r="I12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>101</v>
       </c>
     </row>
-    <row r="13" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="F13" s="2">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="N13" s="2" t="s">
         <v>76</v>
@@ -1434,48 +1431,45 @@
         <v>101</v>
       </c>
     </row>
-    <row r="14" spans="1:15" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="F14" s="2">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>11</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="O14" s="2" t="s">
         <v>101</v>
@@ -1483,25 +1477,25 @@
     </row>
     <row r="15" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>82</v>
+        <v>35</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>83</v>
+        <v>36</v>
       </c>
       <c r="F15" s="2">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>84</v>
+        <v>37</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>6</v>
@@ -1513,39 +1507,42 @@
         <v>9</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>85</v>
+        <v>10</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>11</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>138</v>
+        <v>88</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="O15" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="16" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="F16" s="2">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>6</v>
@@ -1557,74 +1554,27 @@
         <v>9</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>11</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>88</v>
+        <v>131</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>76</v>
+        <v>8</v>
       </c>
       <c r="O16" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="17" spans="1:15" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F17" s="2">
-        <v>2017</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="N17" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="O17" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A2:T20" xr:uid="{EA640836-B94E-084A-8D12-EC9660F9218A}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T18">
-    <sortCondition descending="1" ref="J2:J18"/>
-    <sortCondition descending="1" ref="O2:O18"/>
-    <sortCondition ref="A2:A18"/>
+  <autoFilter ref="A2:T19" xr:uid="{EA640836-B94E-084A-8D12-EC9660F9218A}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T17">
+    <sortCondition descending="1" ref="J2:J17"/>
+    <sortCondition descending="1" ref="O2:O17"/>
+    <sortCondition ref="A2:A17"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data extraction /lit search metadata /acclimation /acclimation7jun21.xlsx
+++ b/data extraction /lit search metadata /acclimation /acclimation7jun21.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maslein/Desktop/thesis/data extraction /lit search metadata /acclimation /"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07A99C70-C3D1-214B-AF79-67E573A7A7F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA7CA110-B743-DE40-A798-3EEB52062732}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2840" yWindow="460" windowWidth="23560" windowHeight="12660" xr2:uid="{15E522D6-79C7-664C-9C48-CC1A91CDC4AD}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="139">
   <si>
     <t>Bartheld_2017_JOOFTHBI</t>
   </si>
@@ -821,7 +821,7 @@
   <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1471,6 +1471,9 @@
       <c r="M14" s="2" t="s">
         <v>130</v>
       </c>
+      <c r="N14" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="O14" s="2" t="s">
         <v>101</v>
       </c>
@@ -1563,7 +1566,7 @@
         <v>131</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>8</v>
+        <v>76</v>
       </c>
       <c r="O16" s="2" t="s">
         <v>101</v>

--- a/data extraction /lit search metadata /acclimation /acclimation7jun21.xlsx
+++ b/data extraction /lit search metadata /acclimation /acclimation7jun21.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maslein/Desktop/thesis/data extraction /lit search metadata /acclimation /"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA7CA110-B743-DE40-A798-3EEB52062732}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{336C37F2-4A33-7D4A-8699-EBC2929D5777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2840" yWindow="460" windowWidth="23560" windowHeight="12660" xr2:uid="{15E522D6-79C7-664C-9C48-CC1A91CDC4AD}"/>
+    <workbookView xWindow="28800" yWindow="-28000" windowWidth="23560" windowHeight="12660" xr2:uid="{15E522D6-79C7-664C-9C48-CC1A91CDC4AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$T$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$T$20</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="146">
   <si>
     <t>Bartheld_2017_JOOFTHBI</t>
   </si>
@@ -445,6 +445,27 @@
   </si>
   <si>
     <t>fig 1</t>
+  </si>
+  <si>
+    <t>Sheldon2020</t>
+  </si>
+  <si>
+    <t>Sheldon, K.S. and Padash, M. and Carter, A.W. and Marshall, K.E.</t>
+  </si>
+  <si>
+    <t>Different amplitudes of temperature fluctuation induce distinct transcriptomic and metabolomic responses in the dung beetle Phanaeus vindex</t>
+  </si>
+  <si>
+    <t>Journal of Experimental Biology</t>
+  </si>
+  <si>
+    <t>10.1242/jeb.233239</t>
+  </si>
+  <si>
+    <t>Most studies exploring molecular and physiological responses to temperature have focused on constant temperature treatments. To gain a better understanding of the impact of fluctuating temperatures, we investigated the effects of increased temperature variation on Phanaeus vindex dung beetles across levels of biological organization. Specifically, we hypothesized that increased temperature variation is energetically demanding. We predicted that thermal sensitivity of metabolic rate and energetic reserves would be reduced with increasing fluctuation. To test this, we examined the responses of dung beetles to constant (20C), low fluctuation (205C), or high fluctuation (2012C) temperature treatments using respirometry, assessment of energetic reserves and HPLC-MS-based metabolomics. We found no significant differences in metabolic rate or energetic reserves, suggesting increased fluctuations were not energetically demanding. To understand why there was no effect of increased amplitude of temperature fluctuation on energetics, we assembled and annotated a de novo transcriptome, finding non-overlapping transcriptomic and metabolomic responses of beetles exposed to different fluctuations. We found that 58 metabolites increased in abundance in both fluctuation treatments, but 15 only did so in response to high-amplitude fluctuations. We found that 120 transcripts were significantly upregulated following acclimation to any fluctuation, but 174 were upregulated only in beetles from the high-amplitude fluctuation treatment. Several differentially expressed transcripts were associated with post-translational modifications to histones that support a more open chromatin structure. Our results demonstrate that acclimation to different temperature fluctuations is distinct and may be supported by increasing transcriptional plasticity. Our results indicate for the first time that histone modifications may underlie rapid acclimation to temperature variation.  2020 Company of Biologists Ltd. All rights reserved.</t>
+  </si>
+  <si>
+    <t>full analysis for figure 2</t>
   </si>
 </sst>
 </file>
@@ -818,10 +839,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C8F4095-DAD1-314E-93A6-2C3D1771AF66}">
-  <dimension ref="A1:O16"/>
+  <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1293,27 +1314,27 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="F11" s="4">
-        <v>2014</v>
+        <v>2020</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>6</v>
@@ -1328,7 +1349,7 @@
         <v>138</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="N11" s="4" t="s">
         <v>8</v>
@@ -1337,92 +1358,89 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="F12" s="4">
+        <v>2014</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B13" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F13" s="2">
         <v>2012</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G13" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="O12" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F13" s="2">
-        <v>2015</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N13" s="2" t="s">
         <v>76</v>
@@ -1431,45 +1449,45 @@
         <v>101</v>
       </c>
     </row>
-    <row r="14" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="F14" s="2">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>11</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N14" s="2" t="s">
         <v>76</v>
@@ -1480,25 +1498,25 @@
     </row>
     <row r="15" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>26</v>
+        <v>79</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>35</v>
+        <v>82</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>36</v>
+        <v>83</v>
       </c>
       <c r="F15" s="2">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>6</v>
@@ -1510,13 +1528,13 @@
         <v>9</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>11</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>88</v>
+        <v>130</v>
       </c>
       <c r="N15" s="2" t="s">
         <v>76</v>
@@ -1525,27 +1543,27 @@
         <v>101</v>
       </c>
     </row>
-    <row r="16" spans="1:15" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="F16" s="2">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>6</v>
@@ -1557,13 +1575,13 @@
         <v>9</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>11</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>131</v>
+        <v>88</v>
       </c>
       <c r="N16" s="2" t="s">
         <v>76</v>
@@ -1572,12 +1590,59 @@
         <v>101</v>
       </c>
     </row>
+    <row r="17" spans="1:15" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" s="2">
+        <v>2017</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:T19" xr:uid="{EA640836-B94E-084A-8D12-EC9660F9218A}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T17">
-    <sortCondition descending="1" ref="J2:J17"/>
-    <sortCondition descending="1" ref="O2:O17"/>
-    <sortCondition ref="A2:A17"/>
+  <autoFilter ref="A2:T20" xr:uid="{EA640836-B94E-084A-8D12-EC9660F9218A}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T18">
+    <sortCondition descending="1" ref="J2:J18"/>
+    <sortCondition descending="1" ref="O2:O18"/>
+    <sortCondition ref="A2:A18"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data extraction /lit search metadata /acclimation /acclimation7jun21.xlsx
+++ b/data extraction /lit search metadata /acclimation /acclimation7jun21.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maslein/Desktop/thesis/data extraction /lit search metadata /acclimation /"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{336C37F2-4A33-7D4A-8699-EBC2929D5777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9E9B3B0-DBEC-2A49-A3E9-DC55004E5853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="-28000" windowWidth="23560" windowHeight="12660" xr2:uid="{15E522D6-79C7-664C-9C48-CC1A91CDC4AD}"/>
   </bookViews>
@@ -414,9 +414,6 @@
     <t>We investigated the effects of constant and diel-fluctuating temperature acclimation on the thermal tolerance, swimming capacity, specific dynamic action (SDA) and growth performance of juvenile Chinese bream (Parabramis pekinensis). The critical thermal maxima (CTmax), critical thermal minima (CTmin), lethal thermal maxima (LTmax), lethal thermal minima (LTmin), critical swimming speed (Ucrit) and fast-start escape response after 30d acclimation to three constant temperatures (15, 20 and 25C) and one diel-fluctuating temperature (205C) were measured. In addition, feeding rate (FR), feeding efficiency (FE) and specific growth rate (SGR) were measured. The diel-fluctuating temperature group showed lower CTmin than the 20C group but a similar CTmax, indicating a wider thermal scope. SDA linearly increased with the temperature. Temperature variation between 20 and 25C had little effect on either swimming or growth performance. However, fish in the 15C group exhibited much poorer swimming and growth performance than those in the 20C group. Ucrit decreased slightly under low acclimation temperature due to the pronounced improvement in swimming efficiency under cold temperature. Fish in the diel-fluctuating temperature group fed more but exhibited similar SGR compared to 20C group, possibly due in part to an increase in energy expenditure to cope with the temperature fluctuation. The narrower thermal scope and lower CTmax of Chinese bream together with the conservation of CTmax with temperature acclimation, suggests that local water temperature elevations may have more profound effects on Chinese bream than on other fish species in the Three Gorges Reservoir.  2014 Elsevier Inc.</t>
   </si>
   <si>
-    <t xml:space="preserve"> this features multiple generations-- generation time is 25 day at 30 C; excluded because the fluctuating treatment does not match the constant treatment and therefore, cannot be paired…</t>
-  </si>
-  <si>
     <t>flux and constant don't have the same mean and they are not the same flux pattern (trt exposed to multiple flux patterns)</t>
   </si>
   <si>
@@ -466,6 +463,9 @@
   </si>
   <si>
     <t>full analysis for figure 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> this features multiple generations-- generation time is 25 day at 30 C; excluded because the fluctuating treatment mean does not match the constant treatment and therefore, cannot be paired…</t>
   </si>
 </sst>
 </file>
@@ -842,7 +842,7 @@
   <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1164,10 +1164,10 @@
         <v>8</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M7" s="4" t="s">
         <v>99</v>
@@ -1255,13 +1255,13 @@
         <v>8</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N9" s="4" t="s">
         <v>8</v>
@@ -1316,25 +1316,25 @@
     </row>
     <row r="11" spans="1:15" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="C11" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="D11" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="E11" s="4" t="s">
         <v>142</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>143</v>
       </c>
       <c r="F11" s="4">
         <v>2020</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>6</v>
@@ -1346,10 +1346,10 @@
         <v>8</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="N11" s="4" t="s">
         <v>8</v>
@@ -1390,10 +1390,10 @@
         <v>8</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N12" s="4" t="s">
         <v>8</v>
@@ -1440,7 +1440,7 @@
         <v>46</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="N13" s="2" t="s">
         <v>76</v>
@@ -1487,7 +1487,7 @@
         <v>11</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N14" s="2" t="s">
         <v>76</v>
@@ -1534,7 +1534,7 @@
         <v>11</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N15" s="2" t="s">
         <v>76</v>
@@ -1628,7 +1628,7 @@
         <v>11</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N17" s="2" t="s">
         <v>76</v>

--- a/data extraction /lit search metadata /acclimation /acclimation7jun21.xlsx
+++ b/data extraction /lit search metadata /acclimation /acclimation7jun21.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maslein/Desktop/thesis/data extraction /lit search metadata /acclimation /"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9E9B3B0-DBEC-2A49-A3E9-DC55004E5853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3C96BC7-4366-D249-97DA-F1D59E3F7FB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="-28000" windowWidth="23560" windowHeight="12660" xr2:uid="{15E522D6-79C7-664C-9C48-CC1A91CDC4AD}"/>
   </bookViews>
@@ -435,9 +435,6 @@
     <t xml:space="preserve">not sure how to handle constant mean with changing variance….so far, just extracted constant mean and constant variance trts as paired </t>
   </si>
   <si>
-    <t xml:space="preserve">not sure how to handle the data where they include and exclude individuals with different thermal preferences; decided to just use all individuals and not the exclusion analysis because I would be representing a lot of data twice and that might skew the data; extracted all data from figure 1 but not sure whether I should be including thermal preference data the both includes or excludes ctmin; assumed median values as means here </t>
-  </si>
-  <si>
     <t xml:space="preserve">acclimation; excluded the figures/data that reported the fluctuating treatments at the two different min/max. </t>
   </si>
   <si>
@@ -466,6 +463,9 @@
   </si>
   <si>
     <t xml:space="preserve"> this features multiple generations-- generation time is 25 day at 30 C; excluded because the fluctuating treatment mean does not match the constant treatment and therefore, cannot be paired…</t>
+  </si>
+  <si>
+    <t>not sure how to handle the data where they include and exclude individuals with different thermal preferences; decided to just use all individuals and not the exclusion analysis because I would be representing a lot of data twice and that might skew the data; extracted all data from figure 1 but not sure whether I should be including thermal preference data the both includes or excludes ctmin; assumed median values as means here; excluded some data from figure 1, figure 3a because it was not normally distributed</t>
   </si>
 </sst>
 </file>
@@ -842,7 +842,7 @@
   <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1258,7 +1258,7 @@
         <v>133</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="M9" s="4" t="s">
         <v>132</v>
@@ -1316,25 +1316,25 @@
     </row>
     <row r="11" spans="1:15" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="C11" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="D11" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="E11" s="4" t="s">
         <v>141</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>142</v>
       </c>
       <c r="F11" s="4">
         <v>2020</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>6</v>
@@ -1346,10 +1346,10 @@
         <v>8</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N11" s="4" t="s">
         <v>8</v>
@@ -1390,10 +1390,10 @@
         <v>8</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N12" s="4" t="s">
         <v>8</v>
@@ -1440,7 +1440,7 @@
         <v>46</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="N13" s="2" t="s">
         <v>76</v>
